--- a/OnBoard/output/trust/catch/Catch_Trust_8.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_8.xlsx
@@ -1310,7 +1310,7 @@
         <v>0.024</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I23">
         <v>9.638955555555555</v>
@@ -1597,7 +1597,7 @@
         <v>1.438</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I30">
         <v>9.638955555555555</v>
@@ -1679,7 +1679,7 @@
         <v>3.202</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I32">
         <v>9.638955555555555</v>
